--- a/ProjectFiles/Projektmanagement/Arbeitspakete.xlsx
+++ b/ProjectFiles/Projektmanagement/Arbeitspakete.xlsx
@@ -3,24 +3,30 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95A6B64-3116-4533-ACBC-73798FBD279C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AD16EC-D5F3-4BE2-A389-CBCA94622864}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="89">
   <si>
     <t>Nr</t>
   </si>
@@ -34,9 +40,6 @@
     <t>Verantwortlich/Beteiligt</t>
   </si>
   <si>
-    <t>Anmerkungen</t>
-  </si>
-  <si>
     <t>Spielkonzept festlegen</t>
   </si>
   <si>
@@ -46,9 +49,6 @@
     <t>Framework-Recherche</t>
   </si>
   <si>
-    <t>Ein erster lauffähiger Prototyp bei dem man ein Element durch ein Level bewegen kann</t>
-  </si>
-  <si>
     <t>PSP</t>
   </si>
   <si>
@@ -76,9 +76,6 @@
     <t>Leveldesign-Paper-Prototyping</t>
   </si>
   <si>
-    <t>xx</t>
-  </si>
-  <si>
     <t>jeder</t>
   </si>
   <si>
@@ -194,6 +191,109 @@
   </si>
   <si>
     <t>Sammlung der Audio-Dateien im repo + Quellen</t>
+  </si>
+  <si>
+    <t>Levelfortschritt</t>
+  </si>
+  <si>
+    <t>Gegnerbewegung</t>
+  </si>
+  <si>
+    <t>Animationen</t>
+  </si>
+  <si>
+    <t>Abschlusspräsentation</t>
+  </si>
+  <si>
+    <t>Musik und Souns einbinden</t>
+  </si>
+  <si>
+    <t>Zeitlimit und Gameover</t>
+  </si>
+  <si>
+    <t>ist</t>
+  </si>
+  <si>
+    <t>Content einbinden</t>
+  </si>
+  <si>
+    <t>zusatzlicher Content, falls vergessen</t>
+  </si>
+  <si>
+    <t>TileMap dateien erstellen</t>
+  </si>
+  <si>
+    <t>zusätzliche Level designen</t>
+  </si>
+  <si>
+    <t>Lebensanzeige und gameover</t>
+  </si>
+  <si>
+    <t>Animationen-spritesheets erstellen</t>
+  </si>
+  <si>
+    <t>GUI Elemente anordnen</t>
+  </si>
+  <si>
+    <t>LevelOver-Hintergrundgrafiken</t>
+  </si>
+  <si>
+    <t>Texturen laden</t>
+  </si>
+  <si>
+    <t>Statusbericht 14.03.</t>
+  </si>
+  <si>
+    <t>Termine</t>
+  </si>
+  <si>
+    <t>07.03.</t>
+  </si>
+  <si>
+    <t>Arbeitszeit/Überstunden</t>
+  </si>
+  <si>
+    <t>08.03.</t>
+  </si>
+  <si>
+    <t>09/10.03.</t>
+  </si>
+  <si>
+    <t>11.03.</t>
+  </si>
+  <si>
+    <t>14.03.</t>
+  </si>
+  <si>
+    <t>16/17.03</t>
+  </si>
+  <si>
+    <t>19.03.</t>
+  </si>
+  <si>
+    <t>21.03.</t>
+  </si>
+  <si>
+    <t>sonstiges</t>
+  </si>
+  <si>
+    <t>Vorlesung hören</t>
+  </si>
+  <si>
+    <t>Statusberichte hören</t>
+  </si>
+  <si>
+    <t>Teambuilding</t>
+  </si>
+  <si>
+    <t>Summe</t>
+  </si>
+  <si>
+    <t>puffer</t>
+  </si>
+  <si>
+    <t>Ein erster lauffähiger Prototyp bei dem 
+man ein Element durch ein Level bewegen kann</t>
   </si>
 </sst>
 </file>
@@ -229,8 +329,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -511,27 +615,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="29.88671875" customWidth="1"/>
-    <col min="3" max="3" width="52.33203125" customWidth="1"/>
+    <col min="3" max="3" width="41.21875" customWidth="1"/>
     <col min="4" max="4" width="15.5546875" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" customWidth="1"/>
+    <col min="7" max="7" width="4.5546875" customWidth="1"/>
+    <col min="10" max="10" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -543,352 +649,749 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="G1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>104</v>
       </c>
       <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
-        <v>12</v>
+      <c r="D6">
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>105</v>
       </c>
       <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>106</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="I11" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>200</v>
+      </c>
+      <c r="B13" t="s">
         <v>34</v>
       </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>200</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="I13" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>201</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="I14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>202</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>203</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="I16" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>204</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="I17" t="s">
+        <v>78</v>
+      </c>
+      <c r="J17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>205</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="I18" t="s">
+        <v>79</v>
+      </c>
+      <c r="J18" t="s">
+        <v>87</v>
+      </c>
+      <c r="K18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I19" t="s">
+        <v>80</v>
+      </c>
+      <c r="J19" t="s">
+        <v>87</v>
+      </c>
+      <c r="K19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J20" t="s">
+        <v>87</v>
+      </c>
+      <c r="K20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>300</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" t="s">
+        <v>86</v>
+      </c>
+      <c r="J22">
+        <f>SUM(J13:J21)</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>301</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23">
+        <v>25</v>
+      </c>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>302</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>303</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>400</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>401</v>
+      </c>
+      <c r="B29" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>201</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29">
         <v>5</v>
       </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>202</v>
-      </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>500</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>501</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>502</v>
+      </c>
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>503</v>
+      </c>
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>504</v>
+      </c>
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>505</v>
+      </c>
+      <c r="B37" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>506</v>
+      </c>
+      <c r="B38" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>507</v>
+      </c>
+      <c r="B39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>508</v>
+      </c>
+      <c r="B40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>509</v>
+      </c>
+      <c r="B41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>510</v>
+      </c>
+      <c r="B42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>511</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>600</v>
+      </c>
+      <c r="B46" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>601</v>
+      </c>
+      <c r="B47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>602</v>
+      </c>
+      <c r="B48" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>700</v>
+      </c>
+      <c r="B52" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>701</v>
+      </c>
+      <c r="B53" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>702</v>
+      </c>
+      <c r="B54" t="s">
         <v>12</v>
       </c>
-      <c r="E11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>203</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>204</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>300</v>
-      </c>
-      <c r="B15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>301</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="C54" t="s">
         <v>53</v>
       </c>
-      <c r="D16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>302</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54" t="s">
         <v>25</v>
       </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>303</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>400</v>
-      </c>
-      <c r="B21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>401</v>
-      </c>
-      <c r="B22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>703</v>
+      </c>
+      <c r="B55" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>500</v>
-      </c>
-      <c r="B25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>501</v>
-      </c>
-      <c r="B26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>704</v>
+      </c>
+      <c r="B56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>705</v>
+      </c>
+      <c r="B57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>600</v>
-      </c>
-      <c r="B29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>601</v>
-      </c>
-      <c r="B30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>602</v>
-      </c>
-      <c r="B31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>700</v>
-      </c>
-      <c r="B33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>701</v>
-      </c>
-      <c r="B34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>702</v>
-      </c>
-      <c r="B35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" t="s">
-        <v>56</v>
-      </c>
-      <c r="E35" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>703</v>
-      </c>
-      <c r="B36" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" t="s">
-        <v>55</v>
-      </c>
-      <c r="E36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>704</v>
-      </c>
-      <c r="B37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" t="s">
-        <v>57</v>
-      </c>
-      <c r="E37" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>705</v>
-      </c>
-      <c r="B38" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" t="s">
-        <v>55</v>
-      </c>
-      <c r="E38" t="s">
-        <v>29</v>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>706</v>
+      </c>
+      <c r="B58" t="s">
+        <v>69</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>707</v>
+      </c>
+      <c r="B59" t="s">
+        <v>67</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>708</v>
+      </c>
+      <c r="B60" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>800</v>
+      </c>
+      <c r="B63" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>801</v>
+      </c>
+      <c r="B64" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64">
+        <v>5</v>
+      </c>
+      <c r="F64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>802</v>
+      </c>
+      <c r="B65" t="s">
+        <v>83</v>
+      </c>
+      <c r="D65">
+        <v>10</v>
+      </c>
+      <c r="F65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>803</v>
+      </c>
+      <c r="B66" t="s">
+        <v>85</v>
+      </c>
+      <c r="D66">
+        <v>5</v>
+      </c>
+      <c r="F66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D69">
+        <f>SUM(D2:D68)</f>
+        <v>170</v>
+      </c>
+      <c r="F69">
+        <f>SUM(F2:F68)</f>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectFiles/Projektmanagement/Arbeitspakete.xlsx
+++ b/ProjectFiles/Projektmanagement/Arbeitspakete.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AD16EC-D5F3-4BE2-A389-CBCA94622864}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr showObjects="none" filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EF3AEC-5F65-47B1-82F2-05D94C62EBAC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="98">
   <si>
     <t>Nr</t>
   </si>
@@ -199,24 +199,15 @@
     <t>Gegnerbewegung</t>
   </si>
   <si>
-    <t>Animationen</t>
-  </si>
-  <si>
     <t>Abschlusspräsentation</t>
   </si>
   <si>
-    <t>Musik und Souns einbinden</t>
-  </si>
-  <si>
     <t>Zeitlimit und Gameover</t>
   </si>
   <si>
     <t>ist</t>
   </si>
   <si>
-    <t>Content einbinden</t>
-  </si>
-  <si>
     <t>zusatzlicher Content, falls vergessen</t>
   </si>
   <si>
@@ -233,9 +224,6 @@
   </si>
   <si>
     <t>GUI Elemente anordnen</t>
-  </si>
-  <si>
-    <t>LevelOver-Hintergrundgrafiken</t>
   </si>
   <si>
     <t>Texturen laden</t>
@@ -294,6 +282,45 @@
   <si>
     <t>Ein erster lauffähiger Prototyp bei dem 
 man ein Element durch ein Level bewegen kann</t>
+  </si>
+  <si>
+    <t>Folien durcharbeiten</t>
+  </si>
+  <si>
+    <t>Projekt portieren auf eclipse</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>git - Recherche</t>
+  </si>
+  <si>
+    <t>Player-Inventar, Interaktion mit Items</t>
+  </si>
+  <si>
+    <t>Textboxen</t>
+  </si>
+  <si>
+    <t>Aygün,Selin</t>
+  </si>
+  <si>
+    <t>Jannis</t>
+  </si>
+  <si>
+    <t>Musik und Sounds einbinden</t>
+  </si>
+  <si>
+    <t>Aygün</t>
+  </si>
+  <si>
+    <t>beta tests</t>
+  </si>
+  <si>
+    <t>Marie, Konstantin</t>
+  </si>
+  <si>
+    <t>Animationen, Player-animation</t>
   </si>
 </sst>
 </file>
@@ -615,17 +642,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K69"/>
+  <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="29.88671875" customWidth="1"/>
-    <col min="3" max="3" width="41.21875" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" customWidth="1"/>
     <col min="5" max="5" width="14.21875" customWidth="1"/>
     <col min="6" max="6" width="12.21875" customWidth="1"/>
     <col min="7" max="7" width="4.5546875" customWidth="1"/>
@@ -649,7 +676,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G1" t="s">
         <v>48</v>
@@ -682,6 +709,9 @@
       <c r="F3">
         <v>1</v>
       </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -702,6 +732,9 @@
       <c r="F4">
         <v>4</v>
       </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -722,6 +755,9 @@
       <c r="F5">
         <v>4</v>
       </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -742,6 +778,9 @@
       <c r="F6">
         <v>4</v>
       </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -759,30 +798,45 @@
       <c r="F7">
         <v>1</v>
       </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>106</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D8">
         <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11">
         <v>8</v>
       </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
       <c r="I11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -793,7 +847,7 @@
         <v>34</v>
       </c>
       <c r="I13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J13">
         <v>40</v>
@@ -818,8 +872,11 @@
       <c r="F14">
         <v>4</v>
       </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
       <c r="I14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J14">
         <v>40</v>
@@ -839,13 +896,16 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
       <c r="I15" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J15">
         <v>25</v>
@@ -870,8 +930,11 @@
       <c r="F16">
         <v>4</v>
       </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
       <c r="I16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J16">
         <v>25</v>
@@ -896,8 +959,11 @@
       <c r="F17">
         <v>4</v>
       </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
       <c r="I17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J17">
         <v>40</v>
@@ -908,16 +974,19 @@
         <v>205</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D18">
         <v>4</v>
       </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
       <c r="I18" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J18" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K18">
         <v>20</v>
@@ -925,10 +994,10 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I19" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J19" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K19">
         <v>20</v>
@@ -936,10 +1005,10 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I20" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K20">
         <v>20</v>
@@ -953,7 +1022,7 @@
         <v>35</v>
       </c>
       <c r="I22" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J22">
         <f>SUM(J13:J21)</f>
@@ -979,6 +1048,9 @@
       <c r="F23">
         <v>25</v>
       </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24">
@@ -988,7 +1060,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D24">
         <v>24</v>
@@ -998,6 +1070,9 @@
       </c>
       <c r="F24">
         <v>20</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -1019,378 +1094,595 @@
       <c r="F25">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>304</v>
+      </c>
+      <c r="B26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>305</v>
+      </c>
+      <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>400</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>401</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B31" t="s">
         <v>37</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C31" t="s">
         <v>38</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>500</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B35" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>501</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B36" t="s">
         <v>32</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C36" t="s">
         <v>51</v>
       </c>
-      <c r="D33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34">
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
         <v>502</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B37" t="s">
         <v>55</v>
       </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
         <v>503</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B38" t="s">
         <v>56</v>
-      </c>
-      <c r="D35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>504</v>
-      </c>
-      <c r="B36" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>505</v>
-      </c>
-      <c r="B37" t="s">
-        <v>57</v>
-      </c>
-      <c r="D37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>506</v>
-      </c>
-      <c r="B38" t="s">
-        <v>59</v>
       </c>
       <c r="D38">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>92</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
+        <v>505</v>
+      </c>
+      <c r="B40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40" t="s">
+        <v>94</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>506</v>
+      </c>
+      <c r="B41" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
         <v>508</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B42" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>94</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>509</v>
+      </c>
+      <c r="B43" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>510</v>
+      </c>
+      <c r="B44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44" t="s">
+        <v>92</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>511</v>
+      </c>
+      <c r="B45" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>512</v>
+      </c>
+      <c r="B46" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>91</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>513</v>
+      </c>
+      <c r="B47" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>514</v>
+      </c>
+      <c r="B48" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>600</v>
+      </c>
+      <c r="B53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>601</v>
+      </c>
+      <c r="B54" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>602</v>
+      </c>
+      <c r="B55" t="s">
+        <v>43</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="G55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>603</v>
+      </c>
+      <c r="B56" t="s">
+        <v>95</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
+      </c>
+      <c r="E56" t="s">
+        <v>96</v>
+      </c>
+      <c r="G56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>700</v>
+      </c>
+      <c r="B59" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>701</v>
+      </c>
+      <c r="B60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>25</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>702</v>
+      </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" t="s">
+        <v>53</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61" t="s">
+        <v>25</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>703</v>
+      </c>
+      <c r="B62" t="s">
+        <v>45</v>
+      </c>
+      <c r="C62" t="s">
+        <v>52</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62" t="s">
+        <v>26</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>704</v>
+      </c>
+      <c r="B63" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" t="s">
+        <v>54</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63" t="s">
+        <v>26</v>
+      </c>
+      <c r="G63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>705</v>
+      </c>
+      <c r="B64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C64" t="s">
+        <v>52</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64" t="s">
+        <v>26</v>
+      </c>
+      <c r="G64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>707</v>
+      </c>
+      <c r="B65" t="s">
+        <v>64</v>
+      </c>
+      <c r="D65">
+        <v>4</v>
+      </c>
+      <c r="E65" t="s">
+        <v>25</v>
+      </c>
+      <c r="G65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>708</v>
+      </c>
+      <c r="B66" t="s">
         <v>60</v>
       </c>
-      <c r="D40">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>509</v>
-      </c>
-      <c r="B41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>510</v>
-      </c>
-      <c r="B42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>511</v>
-      </c>
-      <c r="B43" t="s">
-        <v>68</v>
-      </c>
-      <c r="D43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>600</v>
-      </c>
-      <c r="B46" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>601</v>
-      </c>
-      <c r="B47" t="s">
-        <v>42</v>
-      </c>
-      <c r="D47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>602</v>
-      </c>
-      <c r="B48" t="s">
-        <v>43</v>
-      </c>
-      <c r="D48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>700</v>
-      </c>
-      <c r="B52" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>701</v>
-      </c>
-      <c r="B53" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="D66">
+        <v>4</v>
+      </c>
+      <c r="G66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>800</v>
+      </c>
+      <c r="B69" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>801</v>
+      </c>
+      <c r="B70" t="s">
+        <v>80</v>
+      </c>
+      <c r="D70">
+        <v>5</v>
+      </c>
+      <c r="E70" t="s">
+        <v>16</v>
+      </c>
+      <c r="F70">
+        <v>5</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>802</v>
+      </c>
+      <c r="B71" t="s">
+        <v>79</v>
+      </c>
+      <c r="D71">
         <v>10</v>
       </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>702</v>
-      </c>
-      <c r="B54" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" t="s">
-        <v>53</v>
-      </c>
-      <c r="D54">
-        <v>3</v>
-      </c>
-      <c r="E54" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>703</v>
-      </c>
-      <c r="B55" t="s">
-        <v>45</v>
-      </c>
-      <c r="C55" t="s">
-        <v>52</v>
-      </c>
-      <c r="D55">
-        <v>2</v>
-      </c>
-      <c r="E55" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>704</v>
-      </c>
-      <c r="B56" t="s">
-        <v>13</v>
-      </c>
-      <c r="C56" t="s">
-        <v>54</v>
-      </c>
-      <c r="D56">
-        <v>2</v>
-      </c>
-      <c r="E56" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>705</v>
-      </c>
-      <c r="B57" t="s">
-        <v>44</v>
-      </c>
-      <c r="C57" t="s">
-        <v>52</v>
-      </c>
-      <c r="D57">
-        <v>2</v>
-      </c>
-      <c r="E57" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>706</v>
-      </c>
-      <c r="B58" t="s">
-        <v>69</v>
-      </c>
-      <c r="D58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>707</v>
-      </c>
-      <c r="B59" t="s">
-        <v>67</v>
-      </c>
-      <c r="D59">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>708</v>
-      </c>
-      <c r="B60" t="s">
-        <v>63</v>
-      </c>
-      <c r="D60">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>800</v>
-      </c>
-      <c r="B63" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>801</v>
-      </c>
-      <c r="B64" t="s">
-        <v>84</v>
-      </c>
-      <c r="D64">
+      <c r="E71" t="s">
+        <v>16</v>
+      </c>
+      <c r="F71">
+        <v>10</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>803</v>
+      </c>
+      <c r="B72" t="s">
+        <v>81</v>
+      </c>
+      <c r="D72">
         <v>5</v>
       </c>
-      <c r="F64">
+      <c r="E72" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>802</v>
-      </c>
-      <c r="B65" t="s">
-        <v>83</v>
-      </c>
-      <c r="D65">
+      <c r="G72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>804</v>
+      </c>
+      <c r="B73" t="s">
+        <v>85</v>
+      </c>
+      <c r="D73">
         <v>10</v>
       </c>
-      <c r="F65">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>803</v>
-      </c>
-      <c r="B66" t="s">
-        <v>85</v>
-      </c>
-      <c r="D66">
-        <v>5</v>
-      </c>
-      <c r="F66">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D69">
-        <f>SUM(D2:D68)</f>
-        <v>170</v>
-      </c>
-      <c r="F69">
-        <f>SUM(F2:F68)</f>
+      <c r="E73" t="s">
+        <v>16</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D75">
+        <f>SUM(D2:D74)</f>
+        <v>195</v>
+      </c>
+      <c r="F75">
+        <f>SUM(F2:F74)</f>
         <v>93</v>
       </c>
     </row>

--- a/ProjectFiles/Projektmanagement/Arbeitspakete.xlsx
+++ b/ProjectFiles/Projektmanagement/Arbeitspakete.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr showObjects="none" filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EF3AEC-5F65-47B1-82F2-05D94C62EBAC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6B932C-E48D-4F0F-AFC9-8C40D8F77E87}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="99">
   <si>
     <t>Nr</t>
   </si>
@@ -321,6 +321,9 @@
   </si>
   <si>
     <t>Animationen, Player-animation</t>
+  </si>
+  <si>
+    <t>Jannis,Selin</t>
   </si>
 </sst>
 </file>
@@ -644,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1189,6 +1192,9 @@
       <c r="E36" t="s">
         <v>27</v>
       </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
       <c r="G36">
         <v>1</v>
       </c>
@@ -1206,6 +1212,9 @@
       <c r="E37" t="s">
         <v>27</v>
       </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
       <c r="G37">
         <v>1</v>
       </c>
@@ -1286,7 +1295,10 @@
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>94</v>
+        <v>27</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -1320,7 +1332,7 @@
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -1355,6 +1367,9 @@
       </c>
       <c r="E46" t="s">
         <v>91</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -1683,7 +1698,7 @@
       </c>
       <c r="F75">
         <f>SUM(F2:F74)</f>
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectFiles/Projektmanagement/Arbeitspakete.xlsx
+++ b/ProjectFiles/Projektmanagement/Arbeitspakete.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr showObjects="none" filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6B932C-E48D-4F0F-AFC9-8C40D8F77E87}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1FBE7F-1AF0-4A2C-8FE9-EBDC98CB7BA8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="107">
   <si>
     <t>Nr</t>
   </si>
@@ -275,9 +275,6 @@
   </si>
   <si>
     <t>Summe</t>
-  </si>
-  <si>
-    <t>puffer</t>
   </si>
   <si>
     <t>Ein erster lauffähiger Prototyp bei dem 
@@ -324,6 +321,33 @@
   </si>
   <si>
     <t>Jannis,Selin</t>
+  </si>
+  <si>
+    <t>begrenzte Sicht</t>
+  </si>
+  <si>
+    <t>begrenzte Sicht auf Zeitlimit anpassen</t>
+  </si>
+  <si>
+    <t>IST</t>
+  </si>
+  <si>
+    <t>SOLL1</t>
+  </si>
+  <si>
+    <t>SOLL2</t>
+  </si>
+  <si>
+    <t>SOLL3</t>
+  </si>
+  <si>
+    <t>SOLL ALL</t>
+  </si>
+  <si>
+    <t>Puffer</t>
+  </si>
+  <si>
+    <t>Stand</t>
   </si>
 </sst>
 </file>
@@ -339,15 +363,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -355,16 +385,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -645,24 +691,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K75"/>
+  <dimension ref="A1:R79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="29.88671875" customWidth="1"/>
     <col min="3" max="3" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="4.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" customWidth="1"/>
     <col min="5" max="5" width="14.21875" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" customWidth="1"/>
-    <col min="7" max="7" width="4.5546875" customWidth="1"/>
-    <col min="10" max="10" width="23.6640625" customWidth="1"/>
+    <col min="6" max="7" width="5.5546875" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" customWidth="1"/>
+    <col min="9" max="9" width="4.5546875" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" customWidth="1"/>
+    <col min="11" max="11" width="5.88671875" customWidth="1"/>
+    <col min="12" max="12" width="5.5546875" customWidth="1"/>
+    <col min="15" max="15" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -681,19 +731,31 @@
       <c r="F1" t="s">
         <v>59</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J1" s="3">
+        <v>1</v>
+      </c>
+      <c r="K1" s="3">
+        <v>2</v>
+      </c>
+      <c r="L1" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>100</v>
       </c>
       <c r="B2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>101</v>
       </c>
@@ -712,11 +774,16 @@
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>102</v>
       </c>
@@ -735,11 +802,16 @@
       <c r="F4">
         <v>4</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>4</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>103</v>
       </c>
@@ -758,11 +830,16 @@
       <c r="F5">
         <v>4</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>4</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>104</v>
       </c>
@@ -781,11 +858,16 @@
       <c r="F6">
         <v>4</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3">
+        <v>4</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>105</v>
       </c>
@@ -801,11 +883,16 @@
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>106</v>
       </c>
@@ -818,11 +905,26 @@
       <c r="E8" t="s">
         <v>16</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3">
+        <v>4</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>57</v>
       </c>
@@ -832,31 +934,53 @@
       <c r="E11" t="s">
         <v>16</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3">
+        <v>8</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="N11" t="s">
         <v>68</v>
       </c>
-      <c r="J11" t="s">
+      <c r="O11" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="P11" t="s">
+        <v>105</v>
+      </c>
+      <c r="R11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>200</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="N13" t="s">
         <v>69</v>
       </c>
-      <c r="J13">
+      <c r="O13">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="R13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>201</v>
       </c>
@@ -873,19 +997,27 @@
         <v>16</v>
       </c>
       <c r="F14">
-        <v>4</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="I14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="N14" t="s">
         <v>71</v>
       </c>
-      <c r="J14">
+      <c r="O14">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="R14">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>202</v>
       </c>
@@ -904,17 +1036,25 @@
       <c r="F15">
         <v>1</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>3</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
         <v>72</v>
       </c>
-      <c r="J15">
+      <c r="O15">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="R15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>203</v>
       </c>
@@ -933,17 +1073,25 @@
       <c r="F16">
         <v>4</v>
       </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3">
+        <v>4</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="N16" t="s">
         <v>73</v>
       </c>
-      <c r="J16">
+      <c r="O16">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="R16">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>204</v>
       </c>
@@ -962,17 +1110,25 @@
       <c r="F17">
         <v>4</v>
       </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3">
+        <v>4</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="N17" t="s">
         <v>74</v>
       </c>
-      <c r="J17">
+      <c r="O17">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="R17">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>205</v>
       </c>
@@ -982,57 +1138,75 @@
       <c r="D18">
         <v>4</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>3</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
         <v>75</v>
       </c>
-      <c r="J18" t="s">
-        <v>83</v>
-      </c>
-      <c r="K18">
+      <c r="P18">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I19" t="s">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="N19" t="s">
         <v>76</v>
       </c>
-      <c r="J19" t="s">
-        <v>83</v>
-      </c>
-      <c r="K19">
+      <c r="P19">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I20" s="1" t="s">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="N20" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J20" t="s">
-        <v>83</v>
-      </c>
-      <c r="K20">
+      <c r="P20">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>300</v>
       </c>
       <c r="B22" t="s">
         <v>35</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="N22" t="s">
         <v>82</v>
       </c>
-      <c r="J22">
-        <f>SUM(J13:J21)</f>
+      <c r="O22">
+        <f>SUM(O13:O21)</f>
         <v>170</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="P22">
+        <f>SUM(P13:P21)</f>
+        <v>60</v>
+      </c>
+      <c r="Q22">
+        <f>SUM(O22:P22)</f>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>301</v>
       </c>
@@ -1051,11 +1225,16 @@
       <c r="F23">
         <v>25</v>
       </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3">
+        <v>25</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="1:18" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>302</v>
       </c>
@@ -1063,7 +1242,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D24">
         <v>24</v>
@@ -1074,11 +1253,16 @@
       <c r="F24">
         <v>20</v>
       </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3">
+        <v>24</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>303</v>
       </c>
@@ -1097,33 +1281,46 @@
       <c r="F25">
         <v>1</v>
       </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="J25" s="3">
+        <v>1</v>
+      </c>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>304</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>94</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="J26" s="3">
+        <v>2</v>
+      </c>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>305</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1131,19 +1328,40 @@
       <c r="E27" t="s">
         <v>16</v>
       </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1</v>
+      </c>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>400</v>
       </c>
       <c r="B30" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>401</v>
       </c>
@@ -1159,24 +1377,45 @@
       <c r="E31" t="s">
         <v>25</v>
       </c>
-      <c r="G31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>500</v>
       </c>
       <c r="B35" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>501</v>
       </c>
@@ -1195,11 +1434,16 @@
       <c r="F36">
         <v>4</v>
       </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="J36" s="3">
+        <v>4</v>
+      </c>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>502</v>
       </c>
@@ -1215,11 +1459,16 @@
       <c r="F37">
         <v>1</v>
       </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="J37" s="3">
+        <v>1</v>
+      </c>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>503</v>
       </c>
@@ -1230,13 +1479,18 @@
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>92</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="J38" s="3">
+        <v>3</v>
+      </c>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>504</v>
       </c>
@@ -1249,42 +1503,60 @@
       <c r="E39" t="s">
         <v>26</v>
       </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="J39" s="3">
+        <v>2</v>
+      </c>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>505</v>
       </c>
       <c r="B40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D40">
         <v>4</v>
       </c>
       <c r="E40" t="s">
-        <v>94</v>
-      </c>
-      <c r="G40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3">
+        <v>4</v>
+      </c>
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>506</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D41">
         <v>2</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>508</v>
       </c>
@@ -1300,11 +1572,16 @@
       <c r="F42">
         <v>2</v>
       </c>
-      <c r="G42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3">
+        <v>2</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>509</v>
       </c>
@@ -1317,11 +1594,16 @@
       <c r="E43" t="s">
         <v>26</v>
       </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="J43" s="3">
+        <v>4</v>
+      </c>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>510</v>
       </c>
@@ -1332,13 +1614,18 @@
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>98</v>
-      </c>
-      <c r="G44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>511</v>
       </c>
@@ -1351,354 +1638,592 @@
       <c r="E45" t="s">
         <v>25</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>512</v>
       </c>
       <c r="B46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D46">
         <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F46">
         <v>2</v>
       </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="J46" s="3">
+        <v>2</v>
+      </c>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>513</v>
       </c>
       <c r="B47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D47">
         <v>4</v>
       </c>
       <c r="E47" t="s">
-        <v>92</v>
-      </c>
-      <c r="G47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3">
+        <v>4</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>514</v>
       </c>
       <c r="B48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D48">
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>92</v>
-      </c>
-      <c r="G48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
+        <v>91</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3">
+        <v>2</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>515</v>
+      </c>
+      <c r="B49" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>27</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3">
+        <v>1</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>516</v>
+      </c>
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50">
+        <v>3</v>
+      </c>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53">
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56">
         <v>600</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B56" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54">
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57">
         <v>601</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B57" t="s">
         <v>42</v>
       </c>
-      <c r="D54">
-        <v>2</v>
-      </c>
-      <c r="G54">
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="H57">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55">
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58">
         <v>602</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B58" t="s">
         <v>43</v>
       </c>
-      <c r="D55">
-        <v>2</v>
-      </c>
-      <c r="G55">
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="H58">
         <v>3</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56">
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59">
         <v>603</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B59" t="s">
+        <v>94</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
+      <c r="E59" t="s">
         <v>95</v>
       </c>
-      <c r="D56">
-        <v>4</v>
-      </c>
-      <c r="E56" t="s">
-        <v>96</v>
-      </c>
-      <c r="G56">
+      <c r="H59">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59">
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62">
         <v>700</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B62" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60">
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63">
         <v>701</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B63" t="s">
         <v>11</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C63" t="s">
         <v>10</v>
       </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
         <v>25</v>
       </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61">
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="J63" s="3">
+        <v>1</v>
+      </c>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64">
         <v>702</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B64" t="s">
         <v>12</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C64" t="s">
         <v>53</v>
       </c>
-      <c r="D61">
+      <c r="D64">
         <v>3</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E64" t="s">
         <v>25</v>
       </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62">
+      <c r="F64">
+        <v>3</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="J64" s="3">
+        <v>3</v>
+      </c>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65">
         <v>703</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B65" t="s">
         <v>45</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C65" t="s">
         <v>52</v>
       </c>
-      <c r="D62">
-        <v>2</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65" t="s">
         <v>26</v>
       </c>
-      <c r="G62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63">
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="J65" s="3">
+        <v>2</v>
+      </c>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66">
         <v>704</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B66" t="s">
         <v>13</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C66" t="s">
         <v>54</v>
       </c>
-      <c r="D63">
-        <v>2</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66" t="s">
         <v>26</v>
       </c>
-      <c r="G63">
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="H66">
         <v>3</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64">
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67">
         <v>705</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B67" t="s">
         <v>44</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C67" t="s">
         <v>52</v>
       </c>
-      <c r="D64">
-        <v>2</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67" t="s">
         <v>26</v>
       </c>
-      <c r="G64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65">
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="H67">
+        <v>2</v>
+      </c>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3">
+        <v>2</v>
+      </c>
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68">
         <v>707</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B68" t="s">
         <v>64</v>
       </c>
-      <c r="D65">
-        <v>4</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="D68">
+        <v>4</v>
+      </c>
+      <c r="E68" t="s">
         <v>25</v>
       </c>
-      <c r="G65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66">
+      <c r="H68">
+        <v>2</v>
+      </c>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3">
+        <v>4</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69">
         <v>708</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B69" t="s">
         <v>60</v>
       </c>
-      <c r="D66">
-        <v>4</v>
-      </c>
-      <c r="G66">
+      <c r="D69">
+        <v>4</v>
+      </c>
+      <c r="H69">
         <v>3</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69">
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72">
         <v>800</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B72" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70">
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73">
         <v>801</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B73" t="s">
         <v>80</v>
       </c>
-      <c r="D70">
+      <c r="D73">
         <v>5</v>
-      </c>
-      <c r="E70" t="s">
-        <v>16</v>
-      </c>
-      <c r="F70">
-        <v>5</v>
-      </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>802</v>
-      </c>
-      <c r="B71" t="s">
-        <v>79</v>
-      </c>
-      <c r="D71">
-        <v>10</v>
-      </c>
-      <c r="E71" t="s">
-        <v>16</v>
-      </c>
-      <c r="F71">
-        <v>10</v>
-      </c>
-      <c r="G71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>803</v>
-      </c>
-      <c r="B72" t="s">
-        <v>81</v>
-      </c>
-      <c r="D72">
-        <v>5</v>
-      </c>
-      <c r="E72" t="s">
-        <v>16</v>
-      </c>
-      <c r="F72">
-        <v>5</v>
-      </c>
-      <c r="G72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>804</v>
-      </c>
-      <c r="B73" t="s">
-        <v>85</v>
-      </c>
-      <c r="D73">
-        <v>10</v>
       </c>
       <c r="E73" t="s">
         <v>16</v>
       </c>
-      <c r="G73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F73">
+        <v>5</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="J73" s="3">
+        <v>5</v>
+      </c>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>802</v>
+      </c>
+      <c r="B74" t="s">
+        <v>79</v>
+      </c>
+      <c r="D74">
+        <v>10</v>
+      </c>
+      <c r="E74" t="s">
+        <v>16</v>
+      </c>
+      <c r="F74">
+        <v>10</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="J74" s="3">
+        <v>10</v>
+      </c>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>803</v>
+      </c>
+      <c r="B75" t="s">
+        <v>81</v>
+      </c>
       <c r="D75">
-        <f>SUM(D2:D74)</f>
-        <v>195</v>
+        <v>5</v>
+      </c>
+      <c r="E75" t="s">
+        <v>16</v>
       </c>
       <c r="F75">
-        <f>SUM(F2:F74)</f>
+        <v>5</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="J75" s="3">
+        <v>5</v>
+      </c>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>804</v>
+      </c>
+      <c r="B76" t="s">
+        <v>84</v>
+      </c>
+      <c r="D76">
+        <v>10</v>
+      </c>
+      <c r="E76" t="s">
+        <v>16</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="J76" s="3">
+        <v>10</v>
+      </c>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D78">
+        <f>SUM(D2:D77)</f>
+        <v>197</v>
+      </c>
+      <c r="F78">
+        <f>SUM(F2:F77)</f>
+        <v>121</v>
+      </c>
+      <c r="J78" s="3">
+        <f>SUM(J3:J77)</f>
+        <v>144</v>
+      </c>
+      <c r="K78" s="3">
+        <f>SUM(K3:K77)</f>
+        <v>22</v>
+      </c>
+      <c r="L78" s="3">
+        <f>SUM(L3:L77)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D79" t="s">
+        <v>104</v>
+      </c>
+      <c r="F79" t="s">
+        <v>100</v>
+      </c>
+      <c r="J79" t="s">
+        <v>101</v>
+      </c>
+      <c r="K79" t="s">
         <v>102</v>
+      </c>
+      <c r="L79" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectFiles/Projektmanagement/Arbeitspakete.xlsx
+++ b/ProjectFiles/Projektmanagement/Arbeitspakete.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr showObjects="none" filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1FBE7F-1AF0-4A2C-8FE9-EBDC98CB7BA8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E4ACB3-10A5-4B1B-A833-F27631761B10}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="111">
   <si>
     <t>Nr</t>
   </si>
@@ -348,6 +348,18 @@
   </si>
   <si>
     <t>Stand</t>
+  </si>
+  <si>
+    <t>Code mergen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Rätsel implementiern</t>
+  </si>
+  <si>
+    <t>Rästel ausdenken/beschaffen</t>
   </si>
 </sst>
 </file>
@@ -363,7 +375,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,6 +385,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,13 +428,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -691,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R79"/>
+  <dimension ref="A1:R81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -704,7 +730,7 @@
     <col min="4" max="4" width="8.77734375" customWidth="1"/>
     <col min="5" max="5" width="14.21875" customWidth="1"/>
     <col min="6" max="7" width="5.5546875" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" style="5" customWidth="1"/>
     <col min="9" max="9" width="4.5546875" customWidth="1"/>
     <col min="10" max="10" width="5.6640625" customWidth="1"/>
     <col min="11" max="11" width="5.88671875" customWidth="1"/>
@@ -731,7 +757,7 @@
       <c r="F1" t="s">
         <v>59</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>48</v>
       </c>
       <c r="J1" s="3">
@@ -774,7 +800,7 @@
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="5">
         <v>1</v>
       </c>
       <c r="J3" s="3">
@@ -802,7 +828,7 @@
       <c r="F4">
         <v>4</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="5">
         <v>1</v>
       </c>
       <c r="J4" s="3">
@@ -830,7 +856,7 @@
       <c r="F5">
         <v>4</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="5">
         <v>1</v>
       </c>
       <c r="J5" s="3">
@@ -858,7 +884,7 @@
       <c r="F6">
         <v>4</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="5">
         <v>1</v>
       </c>
       <c r="J6" s="3">
@@ -883,7 +909,7 @@
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="5">
         <v>1</v>
       </c>
       <c r="J7" s="3">
@@ -905,7 +931,10 @@
       <c r="E8" t="s">
         <v>16</v>
       </c>
-      <c r="H8">
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="H8" s="5">
         <v>1</v>
       </c>
       <c r="J8" s="3">
@@ -934,7 +963,7 @@
       <c r="E11" t="s">
         <v>16</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="5">
         <v>1</v>
       </c>
       <c r="J11" s="3">
@@ -999,7 +1028,7 @@
       <c r="F14">
         <v>5</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="5">
         <v>1</v>
       </c>
       <c r="J14" s="3">
@@ -1036,7 +1065,7 @@
       <c r="F15">
         <v>1</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="5">
         <v>3</v>
       </c>
       <c r="J15" s="3"/>
@@ -1073,7 +1102,7 @@
       <c r="F16">
         <v>4</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="5">
         <v>1</v>
       </c>
       <c r="J16" s="3">
@@ -1110,7 +1139,7 @@
       <c r="F17">
         <v>4</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="5">
         <v>1</v>
       </c>
       <c r="J17" s="3">
@@ -1138,7 +1167,7 @@
       <c r="D18">
         <v>4</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="5">
         <v>3</v>
       </c>
       <c r="J18" s="3"/>
@@ -1149,16 +1178,36 @@
       <c r="N18" t="s">
         <v>75</v>
       </c>
+      <c r="O18">
+        <v>20</v>
+      </c>
       <c r="P18">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>206</v>
+      </c>
+      <c r="B19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="H19" s="5">
+        <v>2</v>
+      </c>
       <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
+      <c r="K19" s="3">
+        <v>5</v>
+      </c>
       <c r="L19" s="3"/>
       <c r="N19" t="s">
         <v>76</v>
+      </c>
+      <c r="O19">
+        <v>20</v>
       </c>
       <c r="P19">
         <v>20</v>
@@ -1171,6 +1220,9 @@
       <c r="N20" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="O20">
+        <v>20</v>
+      </c>
       <c r="P20">
         <v>20</v>
       </c>
@@ -1195,7 +1247,7 @@
       </c>
       <c r="O22">
         <f>SUM(O13:O21)</f>
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="P22">
         <f>SUM(P13:P21)</f>
@@ -1203,7 +1255,7 @@
       </c>
       <c r="Q22">
         <f>SUM(O22:P22)</f>
-        <v>230</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
@@ -1225,7 +1277,7 @@
       <c r="F23">
         <v>25</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="5">
         <v>1</v>
       </c>
       <c r="J23" s="3">
@@ -1234,7 +1286,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:18" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>302</v>
       </c>
@@ -1253,7 +1305,7 @@
       <c r="F24">
         <v>20</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="5">
         <v>1</v>
       </c>
       <c r="J24" s="3">
@@ -1281,7 +1333,7 @@
       <c r="F25">
         <v>1</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="5">
         <v>1</v>
       </c>
       <c r="J25" s="3">
@@ -1306,7 +1358,7 @@
       <c r="F26">
         <v>2</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="5">
         <v>1</v>
       </c>
       <c r="J26" s="3">
@@ -1331,7 +1383,7 @@
       <c r="F27">
         <v>1</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="5">
         <v>1</v>
       </c>
       <c r="J27" s="3">
@@ -1377,7 +1429,7 @@
       <c r="E31" t="s">
         <v>25</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="5">
         <v>2</v>
       </c>
       <c r="J31" s="3"/>
@@ -1434,7 +1486,7 @@
       <c r="F36">
         <v>4</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="5">
         <v>1</v>
       </c>
       <c r="J36" s="3">
@@ -1459,7 +1511,7 @@
       <c r="F37">
         <v>1</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="5">
         <v>1</v>
       </c>
       <c r="J37" s="3">
@@ -1481,7 +1533,10 @@
       <c r="E38" t="s">
         <v>91</v>
       </c>
-      <c r="H38">
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="H38" s="5">
         <v>1</v>
       </c>
       <c r="J38" s="3">
@@ -1503,7 +1558,7 @@
       <c r="E39" t="s">
         <v>26</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="5">
         <v>1</v>
       </c>
       <c r="J39" s="3">
@@ -1528,7 +1583,7 @@
       <c r="F40">
         <v>4</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="5">
         <v>2</v>
       </c>
       <c r="J40" s="3"/>
@@ -1547,7 +1602,7 @@
       <c r="D41">
         <v>2</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="5">
         <v>3</v>
       </c>
       <c r="J41" s="3"/>
@@ -1572,7 +1627,7 @@
       <c r="F42">
         <v>2</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="5">
         <v>2</v>
       </c>
       <c r="J42" s="3"/>
@@ -1594,7 +1649,7 @@
       <c r="E43" t="s">
         <v>26</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="5">
         <v>1</v>
       </c>
       <c r="J43" s="3">
@@ -1616,7 +1671,10 @@
       <c r="E44" t="s">
         <v>97</v>
       </c>
-      <c r="H44">
+      <c r="F44" s="4">
+        <v>1</v>
+      </c>
+      <c r="H44" s="5">
         <v>2</v>
       </c>
       <c r="J44" s="3"/>
@@ -1638,14 +1696,14 @@
       <c r="E45" t="s">
         <v>25</v>
       </c>
-      <c r="H45">
-        <v>3</v>
+      <c r="H45" s="5">
+        <v>2</v>
       </c>
       <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3">
-        <v>4</v>
-      </c>
+      <c r="K45" s="3">
+        <v>4</v>
+      </c>
+      <c r="L45" s="3"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
@@ -1663,7 +1721,7 @@
       <c r="F46">
         <v>2</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="5">
         <v>1</v>
       </c>
       <c r="J46" s="3">
@@ -1685,7 +1743,7 @@
       <c r="E47" t="s">
         <v>91</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="5">
         <v>2</v>
       </c>
       <c r="J47" s="3"/>
@@ -1707,7 +1765,7 @@
       <c r="E48" t="s">
         <v>91</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="5">
         <v>2</v>
       </c>
       <c r="J48" s="3"/>
@@ -1732,7 +1790,7 @@
       <c r="F49">
         <v>1</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="5">
         <v>2</v>
       </c>
       <c r="J49" s="3"/>
@@ -1754,7 +1812,7 @@
       <c r="E50" t="s">
         <v>27</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="5">
         <v>3</v>
       </c>
       <c r="J50" s="3"/>
@@ -1764,13 +1822,41 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J51" s="3"/>
+      <c r="A51">
+        <v>517</v>
+      </c>
+      <c r="B51" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51">
+        <v>4</v>
+      </c>
+      <c r="F51">
+        <v>4</v>
+      </c>
+      <c r="J51" s="3">
+        <v>4</v>
+      </c>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>518</v>
+      </c>
+      <c r="B52" t="s">
+        <v>109</v>
+      </c>
+      <c r="D52">
+        <v>4</v>
+      </c>
+      <c r="H52" s="5">
+        <v>2</v>
+      </c>
       <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
+      <c r="K52" s="3">
+        <v>4</v>
+      </c>
       <c r="L52" s="3"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -1779,9 +1865,6 @@
       <c r="L53" s="3"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
-        <v>49</v>
-      </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
@@ -1792,215 +1875,172 @@
       <c r="L55" s="3"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>600</v>
-      </c>
       <c r="B56" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>601</v>
-      </c>
-      <c r="B57" t="s">
-        <v>42</v>
-      </c>
-      <c r="D57">
-        <v>2</v>
-      </c>
-      <c r="H57">
-        <v>3</v>
-      </c>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
-      <c r="L57" s="3">
-        <v>2</v>
-      </c>
+      <c r="L57" s="3"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B58" t="s">
-        <v>43</v>
-      </c>
-      <c r="D58">
-        <v>2</v>
-      </c>
-      <c r="H58">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
-      <c r="L58" s="3">
-        <v>2</v>
-      </c>
+      <c r="L58" s="3"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B59" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="D59">
-        <v>4</v>
-      </c>
-      <c r="E59" t="s">
-        <v>95</v>
-      </c>
-      <c r="H59">
+        <v>2</v>
+      </c>
+      <c r="H59" s="5">
         <v>3</v>
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>602</v>
+      </c>
+      <c r="B60" t="s">
+        <v>43</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="H60" s="5">
+        <v>3</v>
+      </c>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
+      <c r="L60" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>603</v>
+      </c>
+      <c r="B61" t="s">
+        <v>94</v>
+      </c>
+      <c r="D61">
+        <v>4</v>
+      </c>
+      <c r="E61" t="s">
+        <v>95</v>
+      </c>
+      <c r="H61" s="5">
+        <v>3</v>
+      </c>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
+      <c r="L61" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>700</v>
-      </c>
-      <c r="B62" t="s">
-        <v>41</v>
-      </c>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>701</v>
-      </c>
-      <c r="B63" t="s">
-        <v>11</v>
-      </c>
-      <c r="C63" t="s">
-        <v>10</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63" t="s">
-        <v>25</v>
-      </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
-      <c r="H63">
-        <v>1</v>
-      </c>
-      <c r="J63" s="3">
-        <v>1</v>
-      </c>
+      <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" t="s">
-        <v>53</v>
-      </c>
-      <c r="D64">
-        <v>3</v>
-      </c>
-      <c r="E64" t="s">
-        <v>25</v>
-      </c>
-      <c r="F64">
-        <v>3</v>
-      </c>
-      <c r="H64">
-        <v>1</v>
-      </c>
-      <c r="J64" s="3">
-        <v>3</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B65" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F65">
-        <v>2</v>
-      </c>
-      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="H65" s="5">
         <v>1</v>
       </c>
       <c r="J65" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E66" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F66">
-        <v>2</v>
-      </c>
-      <c r="H66">
         <v>3</v>
       </c>
-      <c r="J66" s="3"/>
+      <c r="H66" s="5">
+        <v>1</v>
+      </c>
+      <c r="J66" s="3">
+        <v>3</v>
+      </c>
       <c r="K66" s="3"/>
-      <c r="L66" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C67" t="s">
         <v>52</v>
@@ -2014,133 +2054,144 @@
       <c r="F67">
         <v>2</v>
       </c>
-      <c r="H67">
-        <v>2</v>
-      </c>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3">
-        <v>2</v>
-      </c>
+      <c r="H67" s="5">
+        <v>1</v>
+      </c>
+      <c r="J67" s="3">
+        <v>2</v>
+      </c>
+      <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68">
+        <v>704</v>
+      </c>
+      <c r="B68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" t="s">
+        <v>54</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68" t="s">
+        <v>26</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="H68" s="5">
+        <v>3</v>
+      </c>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>705</v>
+      </c>
+      <c r="B69" t="s">
+        <v>44</v>
+      </c>
+      <c r="C69" t="s">
+        <v>52</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69" t="s">
+        <v>26</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="H69" s="5">
+        <v>2</v>
+      </c>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3">
+        <v>2</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A70">
         <v>707</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B70" t="s">
         <v>64</v>
       </c>
-      <c r="D68">
-        <v>4</v>
-      </c>
-      <c r="E68" t="s">
+      <c r="D70">
+        <v>4</v>
+      </c>
+      <c r="E70" t="s">
         <v>25</v>
       </c>
-      <c r="H68">
-        <v>2</v>
-      </c>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3">
-        <v>4</v>
-      </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A69">
+      <c r="F70" s="4">
+        <v>2</v>
+      </c>
+      <c r="H70" s="5">
+        <v>2</v>
+      </c>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3">
+        <v>4</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A71">
         <v>708</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B71" t="s">
         <v>60</v>
       </c>
-      <c r="D69">
-        <v>4</v>
-      </c>
-      <c r="H69">
-        <v>3</v>
-      </c>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D71">
+        <v>4</v>
+      </c>
+      <c r="H71" s="5">
+        <v>2</v>
+      </c>
       <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>800</v>
-      </c>
-      <c r="B72" t="s">
-        <v>78</v>
-      </c>
+      <c r="K71" s="3">
+        <v>4</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>801</v>
-      </c>
-      <c r="B73" t="s">
-        <v>80</v>
-      </c>
-      <c r="D73">
-        <v>5</v>
-      </c>
-      <c r="E73" t="s">
-        <v>16</v>
-      </c>
-      <c r="F73">
-        <v>5</v>
-      </c>
-      <c r="H73">
-        <v>1</v>
-      </c>
-      <c r="J73" s="3">
-        <v>5</v>
-      </c>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J73" s="3"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B74" t="s">
-        <v>79</v>
-      </c>
-      <c r="D74">
-        <v>10</v>
-      </c>
-      <c r="E74" t="s">
-        <v>16</v>
-      </c>
-      <c r="F74">
-        <v>10</v>
-      </c>
-      <c r="H74">
-        <v>1</v>
-      </c>
-      <c r="J74" s="3">
-        <v>10</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="J74" s="3"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B75" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D75">
         <v>5</v>
@@ -2151,7 +2202,7 @@
       <c r="F75">
         <v>5</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="5">
         <v>1</v>
       </c>
       <c r="J75" s="3">
@@ -2160,12 +2211,12 @@
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B76" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D76">
         <v>10</v>
@@ -2173,7 +2224,10 @@
       <c r="E76" t="s">
         <v>16</v>
       </c>
-      <c r="H76">
+      <c r="F76">
+        <v>10</v>
+      </c>
+      <c r="H76" s="5">
         <v>1</v>
       </c>
       <c r="J76" s="3">
@@ -2182,47 +2236,98 @@
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J77" s="3"/>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>803</v>
+      </c>
+      <c r="B77" t="s">
+        <v>81</v>
+      </c>
+      <c r="D77">
+        <v>5</v>
+      </c>
+      <c r="E77" t="s">
+        <v>16</v>
+      </c>
+      <c r="F77">
+        <v>5</v>
+      </c>
+      <c r="H77" s="5">
+        <v>1</v>
+      </c>
+      <c r="J77" s="3">
+        <v>5</v>
+      </c>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>804</v>
+      </c>
+      <c r="B78" t="s">
+        <v>84</v>
+      </c>
       <c r="D78">
-        <f>SUM(D2:D77)</f>
-        <v>197</v>
-      </c>
-      <c r="F78">
-        <f>SUM(F2:F77)</f>
-        <v>121</v>
+        <v>10</v>
+      </c>
+      <c r="E78" t="s">
+        <v>16</v>
+      </c>
+      <c r="H78" s="5">
+        <v>1</v>
       </c>
       <c r="J78" s="3">
-        <f>SUM(J3:J77)</f>
-        <v>144</v>
-      </c>
-      <c r="K78" s="3">
-        <f>SUM(K3:K77)</f>
-        <v>22</v>
-      </c>
-      <c r="L78" s="3">
-        <f>SUM(L3:L77)</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D79" t="s">
+        <v>10</v>
+      </c>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D80">
+        <f>SUM(D2:D79)</f>
+        <v>210</v>
+      </c>
+      <c r="F80">
+        <f>SUM(F2:F79)</f>
+        <v>135</v>
+      </c>
+      <c r="J80" s="3">
+        <f>SUM(J3:J79)</f>
+        <v>148</v>
+      </c>
+      <c r="K80" s="3">
+        <f>SUM(K3:K79)</f>
+        <v>39</v>
+      </c>
+      <c r="L80" s="3">
+        <f>SUM(L3:L79)</f>
+        <v>23</v>
+      </c>
+      <c r="N80">
+        <f>SUM(J80:M80)</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="81" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D81" t="s">
         <v>104</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F81" t="s">
         <v>100</v>
       </c>
-      <c r="J79" t="s">
+      <c r="J81" t="s">
         <v>101</v>
       </c>
-      <c r="K79" t="s">
+      <c r="K81" t="s">
         <v>102</v>
       </c>
-      <c r="L79" t="s">
+      <c r="L81" t="s">
         <v>103</v>
       </c>
     </row>

--- a/ProjectFiles/Projektmanagement/Arbeitspakete.xlsx
+++ b/ProjectFiles/Projektmanagement/Arbeitspakete.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr showObjects="none" filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E4ACB3-10A5-4B1B-A833-F27631761B10}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87FA6BD-DEAA-4E99-8B6E-F653B9E39326}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="115">
   <si>
     <t>Nr</t>
   </si>
@@ -360,14 +360,34 @@
   </si>
   <si>
     <t>Rästel ausdenken/beschaffen</t>
+  </si>
+  <si>
+    <t>Statusbericht 16.03.</t>
+  </si>
+  <si>
+    <t>Statusbericht 22.03.</t>
+  </si>
+  <si>
+    <t>Tür und level completed</t>
+  </si>
+  <si>
+    <t>creditpage, controlpage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -428,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -437,6 +457,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -719,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -780,6 +803,18 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
+      <c r="N2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P2" t="s">
+        <v>105</v>
+      </c>
+      <c r="R2" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -836,6 +871,15 @@
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4">
+        <v>40</v>
+      </c>
+      <c r="R4">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -864,6 +908,15 @@
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5">
+        <v>40</v>
+      </c>
+      <c r="R5">
+        <v>80</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -892,6 +945,15 @@
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
+      <c r="N6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6">
+        <v>25</v>
+      </c>
+      <c r="R6">
+        <v>105</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -917,6 +979,15 @@
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
+      <c r="N7" t="s">
+        <v>73</v>
+      </c>
+      <c r="O7">
+        <v>25</v>
+      </c>
+      <c r="R7">
+        <v>130</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -942,23 +1013,90 @@
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
+      <c r="N8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O8">
+        <v>40</v>
+      </c>
+      <c r="R8">
+        <v>170</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="J9" s="3"/>
+      <c r="A9">
+        <v>107</v>
+      </c>
+      <c r="B9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3">
+        <v>3</v>
+      </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
+      <c r="N9" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9">
+        <v>20</v>
+      </c>
+      <c r="P9">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="J10" s="3"/>
+      <c r="A10">
+        <v>108</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2</v>
+      </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
+      <c r="N10" t="s">
+        <v>76</v>
+      </c>
+      <c r="O10">
+        <v>10</v>
+      </c>
+      <c r="P10">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+      <c r="A11">
+        <v>109</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
@@ -971,17 +1109,14 @@
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-      <c r="N11" t="s">
-        <v>68</v>
-      </c>
-      <c r="O11" t="s">
-        <v>70</v>
-      </c>
-      <c r="P11" t="s">
-        <v>105</v>
-      </c>
-      <c r="R11" t="s">
-        <v>106</v>
+      <c r="N11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O11">
+        <v>20</v>
+      </c>
+      <c r="P11">
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
@@ -1000,13 +1135,19 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="N13" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="O13">
-        <v>40</v>
-      </c>
-      <c r="R13">
-        <v>40</v>
+        <f>SUM(O4:O12)</f>
+        <v>220</v>
+      </c>
+      <c r="P13">
+        <f>SUM(P4:P12)</f>
+        <v>60</v>
+      </c>
+      <c r="Q13">
+        <f>SUM(O13:P13)</f>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
@@ -1036,15 +1177,6 @@
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
-      <c r="N14" t="s">
-        <v>71</v>
-      </c>
-      <c r="O14">
-        <v>40</v>
-      </c>
-      <c r="R14">
-        <v>80</v>
-      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -1073,15 +1205,6 @@
       <c r="L15" s="3">
         <v>1</v>
       </c>
-      <c r="N15" t="s">
-        <v>72</v>
-      </c>
-      <c r="O15">
-        <v>25</v>
-      </c>
-      <c r="R15">
-        <v>105</v>
-      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -1110,17 +1233,8 @@
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-      <c r="N16" t="s">
-        <v>73</v>
-      </c>
-      <c r="O16">
-        <v>25</v>
-      </c>
-      <c r="R16">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>204</v>
       </c>
@@ -1147,17 +1261,8 @@
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
-      <c r="N17" t="s">
-        <v>74</v>
-      </c>
-      <c r="O17">
-        <v>40</v>
-      </c>
-      <c r="R17">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>205</v>
       </c>
@@ -1165,6 +1270,9 @@
         <v>62</v>
       </c>
       <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="F18">
         <v>4</v>
       </c>
       <c r="H18" s="5">
@@ -1175,64 +1283,34 @@
       <c r="L18" s="3">
         <v>4</v>
       </c>
-      <c r="N18" t="s">
-        <v>75</v>
-      </c>
-      <c r="O18">
-        <v>20</v>
-      </c>
-      <c r="P18">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19">
+    </row>
+    <row r="19" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
         <v>206</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D19">
+      <c r="H19" s="7">
+        <v>2</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8">
         <v>5</v>
       </c>
-      <c r="H19" s="5">
-        <v>2</v>
-      </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3">
-        <v>5</v>
-      </c>
-      <c r="L19" s="3"/>
-      <c r="N19" t="s">
-        <v>76</v>
-      </c>
-      <c r="O19">
-        <v>20</v>
-      </c>
-      <c r="P19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
-      <c r="N20" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O20">
-        <v>20</v>
-      </c>
-      <c r="P20">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>300</v>
       </c>
@@ -1242,23 +1320,8 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
-      <c r="N22" t="s">
-        <v>82</v>
-      </c>
-      <c r="O22">
-        <f>SUM(O13:O21)</f>
-        <v>230</v>
-      </c>
-      <c r="P22">
-        <f>SUM(P13:P21)</f>
-        <v>60</v>
-      </c>
-      <c r="Q22">
-        <f>SUM(O22:P22)</f>
-        <v>290</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>301</v>
       </c>
@@ -1286,7 +1349,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>302</v>
       </c>
@@ -1303,7 +1366,7 @@
         <v>24</v>
       </c>
       <c r="F24">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H24" s="5">
         <v>1</v>
@@ -1314,7 +1377,7 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>303</v>
       </c>
@@ -1342,7 +1405,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>304</v>
       </c>
@@ -1367,7 +1430,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>305</v>
       </c>
@@ -1392,17 +1455,17 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>400</v>
       </c>
@@ -1413,32 +1476,27 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31">
+    <row r="31" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
         <v>401</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D31">
-        <v>5</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="E31" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H31" s="5">
-        <v>2</v>
-      </c>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="H31" s="7">
+        <v>2</v>
+      </c>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -1558,6 +1616,9 @@
       <c r="E39" t="s">
         <v>26</v>
       </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
       <c r="H39" s="5">
         <v>1</v>
       </c>
@@ -1596,11 +1657,8 @@
       <c r="A41">
         <v>506</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="D41">
-        <v>2</v>
       </c>
       <c r="H41" s="5">
         <v>3</v>
@@ -1649,6 +1707,9 @@
       <c r="E43" t="s">
         <v>26</v>
       </c>
+      <c r="F43">
+        <v>4</v>
+      </c>
       <c r="H43" s="5">
         <v>1</v>
       </c>
@@ -1671,8 +1732,8 @@
       <c r="E44" t="s">
         <v>97</v>
       </c>
-      <c r="F44" s="4">
-        <v>1</v>
+      <c r="F44">
+        <v>3</v>
       </c>
       <c r="H44" s="5">
         <v>2</v>
@@ -1696,6 +1757,9 @@
       <c r="E45" t="s">
         <v>25</v>
       </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
       <c r="H45" s="5">
         <v>2</v>
       </c>
@@ -1730,49 +1794,43 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47">
+    <row r="47" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="6">
         <v>513</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D47">
-        <v>4</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="E47" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="H47" s="5">
-        <v>2</v>
-      </c>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3">
-        <v>4</v>
-      </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48">
+      <c r="H47" s="7">
+        <v>2</v>
+      </c>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8">
+        <v>4</v>
+      </c>
+      <c r="L47" s="8"/>
+    </row>
+    <row r="48" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="6">
         <v>514</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D48">
-        <v>2</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="E48" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="H48" s="5">
-        <v>2</v>
-      </c>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3">
-        <v>2</v>
-      </c>
-      <c r="L48" s="3"/>
+      <c r="H48" s="7">
+        <v>2</v>
+      </c>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8">
+        <v>2</v>
+      </c>
+      <c r="L48" s="8"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
@@ -1799,25 +1857,22 @@
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50">
+    <row r="50" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="6">
         <v>516</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="E50" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H50" s="5">
+      <c r="H50" s="7">
         <v>3</v>
       </c>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3">
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8">
         <v>1</v>
       </c>
     </row>
@@ -1831,6 +1886,9 @@
       <c r="D51">
         <v>4</v>
       </c>
+      <c r="E51" t="s">
+        <v>93</v>
+      </c>
       <c r="F51">
         <v>4</v>
       </c>
@@ -1840,31 +1898,54 @@
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52">
+    <row r="52" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="6">
         <v>518</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D52">
-        <v>4</v>
-      </c>
-      <c r="H52" s="5">
-        <v>2</v>
-      </c>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3">
-        <v>4</v>
-      </c>
-      <c r="L52" s="3"/>
+      <c r="H52" s="7">
+        <v>2</v>
+      </c>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8">
+        <v>4</v>
+      </c>
+      <c r="L52" s="8"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J53" s="3"/>
+      <c r="A53">
+        <v>519</v>
+      </c>
+      <c r="B53" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53" t="s">
+        <v>26</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="H53" s="5">
+        <v>1</v>
+      </c>
+      <c r="J53" s="3">
+        <v>2</v>
+      </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>520</v>
+      </c>
+      <c r="B54" t="s">
+        <v>114</v>
+      </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
@@ -1898,41 +1979,35 @@
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59">
+    <row r="59" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="6">
         <v>601</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D59">
-        <v>2</v>
-      </c>
-      <c r="H59" s="5">
+      <c r="H59" s="7">
         <v>3</v>
       </c>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60">
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="6">
         <v>602</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D60">
-        <v>2</v>
-      </c>
-      <c r="H60" s="5">
+      <c r="H60" s="7">
         <v>3</v>
       </c>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3">
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8">
         <v>2</v>
       </c>
     </row>
@@ -1940,7 +2015,7 @@
       <c r="A61">
         <v>603</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="4" t="s">
         <v>94</v>
       </c>
       <c r="D61">
@@ -2132,8 +2207,8 @@
       <c r="E70" t="s">
         <v>25</v>
       </c>
-      <c r="F70" s="4">
-        <v>2</v>
+      <c r="F70">
+        <v>4</v>
       </c>
       <c r="H70" s="5">
         <v>2</v>
@@ -2152,6 +2227,12 @@
         <v>60</v>
       </c>
       <c r="D71">
+        <v>4</v>
+      </c>
+      <c r="E71" t="s">
+        <v>27</v>
+      </c>
+      <c r="F71">
         <v>4</v>
       </c>
       <c r="H71" s="5">
@@ -2274,6 +2355,9 @@
       <c r="E78" t="s">
         <v>16</v>
       </c>
+      <c r="F78">
+        <v>10</v>
+      </c>
       <c r="H78" s="5">
         <v>1</v>
       </c>
@@ -2291,15 +2375,15 @@
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D80">
         <f>SUM(D2:D79)</f>
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="F80">
         <f>SUM(F2:F79)</f>
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="J80" s="3">
         <f>SUM(J3:J79)</f>
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="K80" s="3">
         <f>SUM(K3:K79)</f>
@@ -2307,11 +2391,11 @@
       </c>
       <c r="L80" s="3">
         <f>SUM(L3:L79)</f>
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N80">
         <f>SUM(J80:M80)</f>
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="81" spans="4:12" x14ac:dyDescent="0.3">
@@ -2333,5 +2417,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ProjectFiles/Projektmanagement/Arbeitspakete.xlsx
+++ b/ProjectFiles/Projektmanagement/Arbeitspakete.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr showObjects="none" filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87FA6BD-DEAA-4E99-8B6E-F653B9E39326}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFBA086-352D-4FFA-B8F6-4B3504958D0B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="116">
   <si>
     <t>Nr</t>
   </si>
@@ -314,9 +314,6 @@
     <t>beta tests</t>
   </si>
   <si>
-    <t>Marie, Konstantin</t>
-  </si>
-  <si>
     <t>Animationen, Player-animation</t>
   </si>
   <si>
@@ -372,6 +369,12 @@
   </si>
   <si>
     <t>creditpage, controlpage</t>
+  </si>
+  <si>
+    <t>Levelfortschritt auf datei</t>
+  </si>
+  <si>
+    <t>Marie,Jannis</t>
   </si>
 </sst>
 </file>
@@ -742,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -810,10 +813,10 @@
         <v>70</v>
       </c>
       <c r="P2" t="s">
+        <v>104</v>
+      </c>
+      <c r="R2" t="s">
         <v>105</v>
-      </c>
-      <c r="R2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -1028,7 +1031,7 @@
         <v>107</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -1062,7 +1065,7 @@
         <v>108</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1289,7 +1292,7 @@
         <v>206</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -1633,7 +1636,7 @@
         <v>505</v>
       </c>
       <c r="B40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D40">
         <v>4</v>
@@ -1660,6 +1663,15 @@
       <c r="B41" s="4" t="s">
         <v>92</v>
       </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
       <c r="H41" s="5">
         <v>3</v>
       </c>
@@ -1730,7 +1742,7 @@
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F44">
         <v>3</v>
@@ -1837,7 +1849,7 @@
         <v>515</v>
       </c>
       <c r="B49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -1862,7 +1874,7 @@
         <v>516</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>27</v>
@@ -1881,7 +1893,7 @@
         <v>517</v>
       </c>
       <c r="B51" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D51">
         <v>4</v>
@@ -1903,7 +1915,7 @@
         <v>518</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H52" s="7">
         <v>2</v>
@@ -1918,17 +1930,17 @@
       <c r="A53">
         <v>519</v>
       </c>
-      <c r="B53" t="s">
-        <v>113</v>
+      <c r="B53" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="F53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H53" s="5">
         <v>1</v>
@@ -1943,14 +1955,35 @@
       <c r="A54">
         <v>520</v>
       </c>
-      <c r="B54" t="s">
-        <v>114</v>
+      <c r="B54" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>27</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>521</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
@@ -2022,7 +2055,7 @@
         <v>4</v>
       </c>
       <c r="E61" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="H61" s="5">
         <v>3</v>
@@ -2243,7 +2276,7 @@
         <v>4</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
@@ -2375,11 +2408,11 @@
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D80">
         <f>SUM(D2:D79)</f>
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F80">
         <f>SUM(F2:F79)</f>
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="J80" s="3">
         <f>SUM(J3:J79)</f>
@@ -2400,19 +2433,19 @@
     </row>
     <row r="81" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F81" t="s">
+        <v>99</v>
+      </c>
+      <c r="J81" t="s">
         <v>100</v>
       </c>
-      <c r="J81" t="s">
+      <c r="K81" t="s">
         <v>101</v>
       </c>
-      <c r="K81" t="s">
+      <c r="L81" t="s">
         <v>102</v>
-      </c>
-      <c r="L81" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectFiles/Projektmanagement/Arbeitspakete.xlsx
+++ b/ProjectFiles/Projektmanagement/Arbeitspakete.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr showObjects="none" filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFBA086-352D-4FFA-B8F6-4B3504958D0B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9764331-B1DE-4D86-A97E-E4CDB159E529}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="121">
   <si>
     <t>Nr</t>
   </si>
@@ -206,9 +206,6 @@
   </si>
   <si>
     <t>ist</t>
-  </si>
-  <si>
-    <t>zusatzlicher Content, falls vergessen</t>
   </si>
   <si>
     <t>TileMap dateien erstellen</t>
@@ -371,10 +368,28 @@
     <t>creditpage, controlpage</t>
   </si>
   <si>
-    <t>Levelfortschritt auf datei</t>
-  </si>
-  <si>
     <t>Marie,Jannis</t>
+  </si>
+  <si>
+    <t>Gegner platzieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marie </t>
+  </si>
+  <si>
+    <t>Tiles designen</t>
+  </si>
+  <si>
+    <t>bug fixing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUI elemente überarbeiten </t>
+  </si>
+  <si>
+    <t>Levelfortschritt auf datei schreiben</t>
+  </si>
+  <si>
+    <t>Player Sprite anpassen</t>
   </si>
 </sst>
 </file>
@@ -451,7 +466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -463,6 +478,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -743,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R81"/>
+  <dimension ref="A1:R85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -807,16 +823,16 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="N2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P2" t="s">
+        <v>103</v>
+      </c>
+      <c r="R2" t="s">
         <v>104</v>
-      </c>
-      <c r="R2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -875,7 +891,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O4">
         <v>40</v>
@@ -912,7 +928,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O5">
         <v>40</v>
@@ -949,7 +965,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="N6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O6">
         <v>25</v>
@@ -983,7 +999,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="N7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O7">
         <v>25</v>
@@ -997,7 +1013,7 @@
         <v>106</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -1017,7 +1033,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="N8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O8">
         <v>40</v>
@@ -1031,7 +1047,7 @@
         <v>107</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -1051,12 +1067,9 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="N9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O9">
-        <v>20</v>
-      </c>
-      <c r="P9">
         <v>20</v>
       </c>
     </row>
@@ -1065,13 +1078,13 @@
         <v>108</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H10" s="5">
         <v>1</v>
@@ -1082,13 +1095,10 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="N10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O10">
         <v>10</v>
-      </c>
-      <c r="P10">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
@@ -1112,20 +1122,23 @@
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-      <c r="N11" s="1" t="s">
-        <v>77</v>
+      <c r="N11" s="1">
+        <v>43544</v>
       </c>
       <c r="O11">
-        <v>20</v>
-      </c>
-      <c r="P11">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
+      <c r="N12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O12">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -1137,21 +1150,6 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
-      <c r="N13" t="s">
-        <v>82</v>
-      </c>
-      <c r="O13">
-        <f>SUM(O4:O12)</f>
-        <v>220</v>
-      </c>
-      <c r="P13">
-        <f>SUM(P4:P12)</f>
-        <v>60</v>
-      </c>
-      <c r="Q13">
-        <f>SUM(O13:P13)</f>
-        <v>280</v>
-      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -1180,6 +1178,21 @@
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
+      <c r="N14" t="s">
+        <v>81</v>
+      </c>
+      <c r="O14">
+        <f>SUM(O4:O13)</f>
+        <v>225</v>
+      </c>
+      <c r="P14">
+        <f>SUM(P4:P13)</f>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f>SUM(O14:P14)</f>
+        <v>225</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -1269,11 +1282,14 @@
       <c r="A18">
         <v>205</v>
       </c>
-      <c r="B18" t="s">
-        <v>62</v>
+      <c r="B18" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="D18">
         <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
       </c>
       <c r="F18">
         <v>4</v>
@@ -1292,7 +1308,7 @@
         <v>206</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -1360,7 +1376,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D24">
         <v>24</v>
@@ -1413,13 +1429,13 @@
         <v>304</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -1438,7 +1454,7 @@
         <v>305</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1592,7 +1608,7 @@
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F38">
         <v>3</v>
@@ -1611,7 +1627,7 @@
         <v>504</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -1636,13 +1652,13 @@
         <v>505</v>
       </c>
       <c r="B40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D40">
         <v>4</v>
       </c>
       <c r="E40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F40">
         <v>4</v>
@@ -1661,7 +1677,7 @@
         <v>506</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -1669,9 +1685,7 @@
       <c r="E41" t="s">
         <v>25</v>
       </c>
-      <c r="F41">
-        <v>2</v>
-      </c>
+      <c r="F41" s="4"/>
       <c r="H41" s="5">
         <v>3</v>
       </c>
@@ -1711,7 +1725,7 @@
         <v>509</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D43">
         <v>4</v>
@@ -1736,13 +1750,13 @@
         <v>510</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D44">
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F44">
         <v>3</v>
@@ -1761,13 +1775,13 @@
         <v>511</v>
       </c>
       <c r="B45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D45">
         <v>4</v>
       </c>
       <c r="E45" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F45">
         <v>4</v>
@@ -1786,13 +1800,13 @@
         <v>512</v>
       </c>
       <c r="B46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D46">
         <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F46">
         <v>2</v>
@@ -1811,10 +1825,10 @@
         <v>513</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H47" s="7">
         <v>2</v>
@@ -1830,10 +1844,10 @@
         <v>514</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H48" s="7">
         <v>2</v>
@@ -1849,7 +1863,7 @@
         <v>515</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -1874,7 +1888,7 @@
         <v>516</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>27</v>
@@ -1893,13 +1907,13 @@
         <v>517</v>
       </c>
       <c r="B51" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D51">
         <v>4</v>
       </c>
       <c r="E51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F51">
         <v>4</v>
@@ -1915,7 +1929,7 @@
         <v>518</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H52" s="7">
         <v>2</v>
@@ -1931,16 +1945,16 @@
         <v>519</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H53" s="5">
         <v>1</v>
@@ -1956,7 +1970,7 @@
         <v>520</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -1964,6 +1978,7 @@
       <c r="E54" t="s">
         <v>27</v>
       </c>
+      <c r="F54" s="9"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
@@ -1973,7 +1988,7 @@
         <v>521</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -1981,230 +1996,213 @@
       <c r="E55" t="s">
         <v>25</v>
       </c>
-      <c r="F55">
-        <v>2</v>
-      </c>
+      <c r="F55" s="4"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
-        <v>49</v>
+      <c r="A56">
+        <v>522</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
+      </c>
+      <c r="E56" t="s">
+        <v>115</v>
+      </c>
+      <c r="F56">
+        <v>4</v>
       </c>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>523</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>90</v>
+      </c>
+      <c r="F57" s="4"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>600</v>
-      </c>
       <c r="B58" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="6">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>600</v>
+      </c>
+      <c r="B60" t="s">
+        <v>40</v>
+      </c>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="6">
         <v>601</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B61" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H59" s="7">
-        <v>3</v>
-      </c>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="6">
+      <c r="H61" s="7">
+        <v>3</v>
+      </c>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="6">
         <v>602</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B62" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H60" s="7">
-        <v>3</v>
-      </c>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
-      <c r="L60" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A61">
+      <c r="H62" s="7">
+        <v>3</v>
+      </c>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63">
         <v>603</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D61">
-        <v>4</v>
-      </c>
-      <c r="E61" t="s">
-        <v>16</v>
-      </c>
-      <c r="H61" s="5">
-        <v>3</v>
-      </c>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B63" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
+      <c r="E63" t="s">
+        <v>26</v>
+      </c>
+      <c r="F63">
+        <v>4</v>
+      </c>
+      <c r="H63" s="5">
+        <v>3</v>
+      </c>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
+      <c r="L63" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>700</v>
-      </c>
-      <c r="B64" t="s">
-        <v>41</v>
-      </c>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>701</v>
-      </c>
-      <c r="B65" t="s">
-        <v>11</v>
-      </c>
-      <c r="C65" t="s">
-        <v>10</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65" t="s">
-        <v>25</v>
-      </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-      <c r="H65" s="5">
-        <v>1</v>
-      </c>
-      <c r="J65" s="3">
-        <v>1</v>
-      </c>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" t="s">
-        <v>53</v>
-      </c>
-      <c r="D66">
-        <v>3</v>
-      </c>
-      <c r="E66" t="s">
-        <v>25</v>
-      </c>
-      <c r="F66">
-        <v>3</v>
-      </c>
-      <c r="H66" s="5">
-        <v>1</v>
-      </c>
-      <c r="J66" s="3">
-        <v>3</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="J66" s="3"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B67" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H67" s="5">
         <v>1</v>
       </c>
       <c r="J67" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E68" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H68" s="5">
-        <v>3</v>
-      </c>
-      <c r="J68" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="J68" s="3">
+        <v>3</v>
+      </c>
       <c r="K68" s="3"/>
-      <c r="L68" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C69" t="s">
         <v>52</v>
@@ -2219,233 +2217,329 @@
         <v>2</v>
       </c>
       <c r="H69" s="5">
-        <v>2</v>
-      </c>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J69" s="3">
+        <v>2</v>
+      </c>
+      <c r="K69" s="3"/>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B70" t="s">
-        <v>64</v>
+        <v>13</v>
+      </c>
+      <c r="C70" t="s">
+        <v>54</v>
       </c>
       <c r="D70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H70" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J70" s="3"/>
-      <c r="K70" s="3">
-        <v>4</v>
-      </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K70" s="3"/>
+      <c r="L70" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B71" t="s">
-        <v>60</v>
+        <v>44</v>
+      </c>
+      <c r="C71" t="s">
+        <v>52</v>
       </c>
       <c r="D71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E71" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H71" s="5">
         <v>2</v>
       </c>
       <c r="J71" s="3"/>
       <c r="K71" s="3">
-        <v>4</v>
-      </c>
-      <c r="L71" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>706</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+      <c r="E72" t="s">
+        <v>26</v>
+      </c>
+      <c r="F72">
+        <v>3</v>
+      </c>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>707</v>
+      </c>
+      <c r="B73" t="s">
+        <v>63</v>
+      </c>
+      <c r="D73">
+        <v>4</v>
+      </c>
+      <c r="E73" t="s">
+        <v>25</v>
+      </c>
+      <c r="F73">
+        <v>4</v>
+      </c>
+      <c r="H73" s="5">
+        <v>2</v>
+      </c>
       <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
+      <c r="K73" s="3">
+        <v>4</v>
+      </c>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>800</v>
-      </c>
-      <c r="B74" t="s">
-        <v>78</v>
+        <v>708</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D74">
+        <v>4</v>
+      </c>
+      <c r="E74" t="s">
+        <v>27</v>
+      </c>
+      <c r="F74">
+        <v>4</v>
+      </c>
+      <c r="H74" s="5">
+        <v>2</v>
       </c>
       <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K74" s="3">
+        <v>4</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>801</v>
-      </c>
-      <c r="B75" t="s">
-        <v>80</v>
+        <v>709</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="D75">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F75">
-        <v>5</v>
-      </c>
-      <c r="H75" s="5">
-        <v>1</v>
-      </c>
-      <c r="J75" s="3">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>802</v>
-      </c>
-      <c r="B76" t="s">
-        <v>79</v>
-      </c>
-      <c r="D76">
-        <v>10</v>
-      </c>
-      <c r="E76" t="s">
-        <v>16</v>
-      </c>
-      <c r="F76">
-        <v>10</v>
-      </c>
-      <c r="H76" s="5">
-        <v>1</v>
-      </c>
-      <c r="J76" s="3">
-        <v>10</v>
-      </c>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J76" s="3"/>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>803</v>
-      </c>
-      <c r="B77" t="s">
-        <v>81</v>
-      </c>
-      <c r="D77">
-        <v>5</v>
-      </c>
-      <c r="E77" t="s">
-        <v>16</v>
-      </c>
-      <c r="F77">
-        <v>5</v>
-      </c>
-      <c r="H77" s="5">
-        <v>1</v>
-      </c>
-      <c r="J77" s="3">
-        <v>5</v>
-      </c>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J77" s="3"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="B78" t="s">
-        <v>84</v>
-      </c>
-      <c r="D78">
-        <v>10</v>
-      </c>
-      <c r="E78" t="s">
-        <v>16</v>
-      </c>
-      <c r="F78">
-        <v>10</v>
-      </c>
-      <c r="H78" s="5">
-        <v>1</v>
-      </c>
-      <c r="J78" s="3">
-        <v>10</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="J78" s="3"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J79" s="3"/>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>801</v>
+      </c>
+      <c r="B79" t="s">
+        <v>79</v>
+      </c>
+      <c r="D79">
+        <v>5</v>
+      </c>
+      <c r="E79" t="s">
+        <v>16</v>
+      </c>
+      <c r="F79">
+        <v>5</v>
+      </c>
+      <c r="H79" s="5">
+        <v>1</v>
+      </c>
+      <c r="J79" s="3">
+        <v>5</v>
+      </c>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>802</v>
+      </c>
+      <c r="B80" t="s">
+        <v>78</v>
+      </c>
       <c r="D80">
-        <f>SUM(D2:D79)</f>
-        <v>203</v>
+        <v>10</v>
+      </c>
+      <c r="E80" t="s">
+        <v>16</v>
       </c>
       <c r="F80">
-        <f>SUM(F2:F79)</f>
-        <v>181</v>
+        <v>10</v>
+      </c>
+      <c r="H80" s="5">
+        <v>1</v>
       </c>
       <c r="J80" s="3">
-        <f>SUM(J3:J79)</f>
+        <v>10</v>
+      </c>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>803</v>
+      </c>
+      <c r="B81" t="s">
+        <v>80</v>
+      </c>
+      <c r="D81">
+        <v>5</v>
+      </c>
+      <c r="E81" t="s">
+        <v>16</v>
+      </c>
+      <c r="F81">
+        <v>5</v>
+      </c>
+      <c r="H81" s="5">
+        <v>1</v>
+      </c>
+      <c r="J81" s="3">
+        <v>5</v>
+      </c>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>804</v>
+      </c>
+      <c r="B82" t="s">
+        <v>83</v>
+      </c>
+      <c r="D82">
+        <v>10</v>
+      </c>
+      <c r="E82" t="s">
+        <v>16</v>
+      </c>
+      <c r="F82">
+        <v>10</v>
+      </c>
+      <c r="H82" s="5">
+        <v>1</v>
+      </c>
+      <c r="J82" s="3">
+        <v>10</v>
+      </c>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D84">
+        <f>SUM(D2:D83)</f>
+        <v>214</v>
+      </c>
+      <c r="F84">
+        <f>SUM(F2:F83)</f>
+        <v>190</v>
+      </c>
+      <c r="J84" s="3">
+        <f>SUM(J3:J83)</f>
         <v>155</v>
       </c>
-      <c r="K80" s="3">
-        <f>SUM(K3:K79)</f>
+      <c r="K84" s="3">
+        <f>SUM(K3:K83)</f>
         <v>39</v>
       </c>
-      <c r="L80" s="3">
-        <f>SUM(L3:L79)</f>
+      <c r="L84" s="3">
+        <f>SUM(L3:L83)</f>
         <v>18</v>
       </c>
-      <c r="N80">
-        <f>SUM(J80:M80)</f>
+      <c r="N84">
+        <f>SUM(J84:M84)</f>
         <v>212</v>
       </c>
     </row>
-    <row r="81" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D81" t="s">
-        <v>103</v>
-      </c>
-      <c r="F81" t="s">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D85" t="s">
+        <v>102</v>
+      </c>
+      <c r="F85" t="s">
+        <v>98</v>
+      </c>
+      <c r="J85" t="s">
         <v>99</v>
       </c>
-      <c r="J81" t="s">
+      <c r="K85" t="s">
         <v>100</v>
       </c>
-      <c r="K81" t="s">
+      <c r="L85" t="s">
         <v>101</v>
-      </c>
-      <c r="L81" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
